--- a/GA/src/P.xlsx
+++ b/GA/src/P.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A12A8-34B4-664A-B654-3C3F1E4C021E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8332225-D83C-AC4A-ADEC-C3C100C5AAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32880" yWindow="6580" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{ACBD0076-5803-1143-980E-995A417E12FE}"/>
   </bookViews>
   <sheets>
     <sheet name="retailerA" sheetId="1" r:id="rId1"/>
     <sheet name="retailerB" sheetId="2" r:id="rId2"/>
+    <sheet name="retailerC" sheetId="3" r:id="rId3"/>
+    <sheet name="retailerD" sheetId="4" r:id="rId4"/>
+    <sheet name="retailerE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>day1</t>
   </si>
@@ -46,6 +49,9 @@
   </si>
   <si>
     <t>productB</t>
+  </si>
+  <si>
+    <t>productC</t>
   </si>
 </sst>
 </file>
@@ -397,9 +403,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45770C71-E1FE-DD41-B553-8388EC999FE6}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A962933-C126-7542-8CD2-1A6563CC52EB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90506329-1530-6F4B-A8A5-EDE33D7E97ED}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511D9AAF-3230-1A44-AB3A-0352B67C7AF5}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -418,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -429,10 +603,21 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -440,11 +625,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A962933-C126-7542-8CD2-1A6563CC52EB}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49A664E-737D-3C4E-9475-A062B07021C2}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -461,10 +648,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,10 +659,21 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>8</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
